--- a/SPPSApi/Doc/Template/FS0714.xlsx
+++ b/SPPSApi/Doc/Template/FS0714.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\李佳奕\localSPPS\API\spps20210111\spps\SPPSApi\Doc\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\补给项目\API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F28512-E648-486A-821D-2E1D47D0F767}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>包装厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包材品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPS品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修正时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修正原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,35 +380,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,17 +418,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
